--- a/data/testdata/res_node_data.xlsx
+++ b/data/testdata/res_node_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\cmp\data\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cmp\data\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A01FC72-71C4-4425-B0BA-5533D7952404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D217F8-92A2-4C8C-B94C-D8C9647C4480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="region" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>regionname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>河南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建资源节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建service-keystone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建service-vmware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建vmware-endpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建os-l-endpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,56 +516,62 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="5" width="17.375" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -554,55 +584,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428160E2-DEDC-4881-AD44-E963A6B2629F}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -616,65 +652,71 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8B81DF-485F-421F-9B6F-5117D290518C}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{303EC8BE-A9EB-4854-8557-E46F5F77D064}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{FAE89088-46B2-43BC-9170-D58C4342121C}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{303EC8BE-A9EB-4854-8557-E46F5F77D064}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{FAE89088-46B2-43BC-9170-D58C4342121C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -682,67 +724,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279F321-2B9E-46AA-9B60-A0979D8E60DB}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{3C5B21C9-29B3-4152-A2F7-43FC936235B2}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{8E53FCAF-B4A8-4575-BE32-38B38CBC47C0}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3C5B21C9-29B3-4152-A2F7-43FC936235B2}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{8E53FCAF-B4A8-4575-BE32-38B38CBC47C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/testdata/res_node_data.xlsx
+++ b/data/testdata/res_node_data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cmp\data\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D217F8-92A2-4C8C-B94C-D8C9647C4480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F10D7C-676C-421E-A001-29CEB7E3FF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="region" sheetId="1" r:id="rId1"/>
     <sheet name="openstackapi" sheetId="4" r:id="rId2"/>
     <sheet name="vmwareapi" sheetId="2" r:id="rId3"/>
     <sheet name="endpoint" sheetId="3" r:id="rId4"/>
+    <sheet name="templateapi" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>regionname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,14 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keystone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>administrator@vsphere.local</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +127,6 @@
     <t>河南资源池</t>
   </si>
   <si>
-    <t>河南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建service-keystone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建service-vmware</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +144,26 @@
   </si>
   <si>
     <t>创建os-l-endpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建tempest-endpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template-api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.54.103:6080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建service-template-api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +523,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -531,7 +536,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -554,13 +559,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -587,18 +592,18 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -610,36 +615,36 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -655,20 +660,21 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -680,36 +686,36 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -724,14 +730,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279F321-2B9E-46AA-9B60-A0979D8E60DB}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
@@ -740,7 +747,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -757,16 +764,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -774,19 +781,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +818,79 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3C5B21C9-29B3-4152-A2F7-43FC936235B2}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{8E53FCAF-B4A8-4575-BE32-38B38CBC47C0}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{762D8383-B63F-4EEB-87FF-C6C312991A4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC04B5A-CC82-4EB6-8B04-2FF282B9B7A9}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{D3C41EDD-5136-44CD-8F53-EAB315E99134}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{D9345753-6607-4247-827C-54B3B16BE50D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>